--- a/GUI + Reviews/202512/AEX Family.xlsx
+++ b/GUI + Reviews/202512/AEX Family.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\202512\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202512/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D2F8B61-E0C8-40E5-AE25-416FAA1156AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{8D2F8B61-E0C8-40E5-AE25-416FAA1156AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4538801-B361-4A74-BBFA-072A035A58B3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{A63E6ABF-5363-4D23-86E3-0F726F43561F}"/>
+    <workbookView xWindow="-29370" yWindow="195" windowWidth="29040" windowHeight="15720" xr2:uid="{A63E6ABF-5363-4D23-86E3-0F726F43561F}"/>
   </bookViews>
   <sheets>
     <sheet name="AEX" sheetId="1" r:id="rId1"/>
@@ -205,9 +205,6 @@
     <t>UNILEVER</t>
   </si>
   <si>
-    <t>GB00B10RZP78</t>
-  </si>
-  <si>
     <t>WOLTERS KLUWER</t>
   </si>
   <si>
@@ -527,6 +524,9 @@
   </si>
   <si>
     <t>NL0015002K83</t>
+  </si>
+  <si>
+    <t>GB00BVZK7T90</t>
   </si>
 </sst>
 </file>
@@ -1059,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8F9A41-73C2-4E38-AC56-DEDEBD5758A5}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1159,7 +1159,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
@@ -1340,10 +1340,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -1478,10 +1478,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>10</v>
@@ -1501,10 +1501,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>10</v>
@@ -1547,10 +1547,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>10</v>
@@ -1734,7 +1734,7 @@
         <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>10</v>
@@ -1754,13 +1754,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="C31" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D31" s="5">
         <v>232653901</v>
@@ -1777,10 +1777,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>10</v>
@@ -1818,8 +1818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A1C393-DA47-479B-8BF6-811C8570B153}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1835,7 +1835,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1869,10 +1869,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>10</v>
@@ -1892,13 +1892,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D4" s="5">
         <v>262769869</v>
@@ -1915,10 +1915,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
@@ -1938,10 +1938,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>10</v>
@@ -1961,10 +1961,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
@@ -1984,10 +1984,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>10</v>
@@ -2007,10 +2007,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
@@ -2030,10 +2030,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
@@ -2053,10 +2053,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
@@ -2099,10 +2099,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -2122,13 +2122,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D14" s="5">
         <v>73313904</v>
@@ -2145,10 +2145,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>10</v>
@@ -2168,10 +2168,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>10</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>10</v>
@@ -2214,10 +2214,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>10</v>
@@ -2237,10 +2237,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>10</v>
@@ -2260,10 +2260,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>10</v>
@@ -2283,10 +2283,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>10</v>
@@ -2306,10 +2306,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>10</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>10</v>
@@ -2352,10 +2352,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>10</v>
@@ -2375,10 +2375,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>10</v>
@@ -2398,10 +2398,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>10</v>
@@ -2421,10 +2421,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>10</v>
@@ -2484,7 +2484,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -2518,10 +2518,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>10</v>
@@ -2541,10 +2541,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>10</v>
@@ -2564,10 +2564,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
@@ -2587,10 +2587,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>10</v>
@@ -2610,10 +2610,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
@@ -2633,10 +2633,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>10</v>
@@ -2656,10 +2656,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
@@ -2679,10 +2679,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
@@ -2702,10 +2702,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
@@ -2748,10 +2748,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -2771,10 +2771,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>10</v>
@@ -2794,10 +2794,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>10</v>
@@ -2817,10 +2817,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>10</v>
@@ -2840,10 +2840,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>10</v>
@@ -2863,10 +2863,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>10</v>
@@ -2886,10 +2886,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>10</v>
@@ -2909,10 +2909,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>10</v>
@@ -2932,13 +2932,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" s="5">
         <v>19469032</v>
@@ -2955,10 +2955,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>10</v>

--- a/GUI + Reviews/202512/AEX Family.xlsx
+++ b/GUI + Reviews/202512/AEX Family.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202512/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\202512\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{8D2F8B61-E0C8-40E5-AE25-416FAA1156AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4538801-B361-4A74-BBFA-072A035A58B3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF367D4E-A8F9-4415-AB96-3AC0CBDF2F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29370" yWindow="195" windowWidth="29040" windowHeight="15720" xr2:uid="{A63E6ABF-5363-4D23-86E3-0F726F43561F}"/>
   </bookViews>
@@ -1060,7 +1060,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1819,7 +1819,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/GUI + Reviews/202512/AEX Family.xlsx
+++ b/GUI + Reviews/202512/AEX Family.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\202512\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202512/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF367D4E-A8F9-4415-AB96-3AC0CBDF2F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{FF367D4E-A8F9-4415-AB96-3AC0CBDF2F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F95F698-5B4B-46C2-807C-2AFAACF2D151}"/>
   <bookViews>
-    <workbookView xWindow="-29370" yWindow="195" windowWidth="29040" windowHeight="15720" xr2:uid="{A63E6ABF-5363-4D23-86E3-0F726F43561F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{A63E6ABF-5363-4D23-86E3-0F726F43561F}"/>
   </bookViews>
   <sheets>
     <sheet name="AEX" sheetId="1" r:id="rId1"/>
@@ -758,6 +758,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1059,7 +1063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8F9A41-73C2-4E38-AC56-DEDEBD5758A5}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -2467,8 +2471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E4D7D2-284F-49E6-B2E9-80ED5EB35E15}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2872,7 +2876,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="5">
-        <v>70000000</v>
+        <v>78750000</v>
       </c>
       <c r="E18" s="6">
         <v>0.35</v>
